--- a/biology/Botanique/Salix_tetrasperma/Salix_tetrasperma.xlsx
+++ b/biology/Botanique/Salix_tetrasperma/Salix_tetrasperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Salix tetrasperma, le saule d'Inde ou le saule indien (Indian willow en anglais), est une espèce de saule de la famille des Salicaceae, originaire d'Asie.
@@ -512,7 +524,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pleiarina populifolia N.Chao &amp; J.Liu
@@ -536,7 +550,7 @@
 Salix suaveolens Arderss.
 Salix urophylla Lindl.
 Salix wallichii Wimm. ex Anderss.
-Salix zollingeri Miq.[1].
+Salix zollingeri Miq..
 </t>
         </is>
       </c>
@@ -565,7 +579,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Arbre en pot.
@@ -573,9 +589,9 @@
 			Dessus des feuilles.
 			Habitat.
  Salix tetrasperma , communément appelé saule Indien, est un arbre de taille moyenne poussant dans des endroits humides et marécageux, perdant ses feuilles à la fin de la saison des moussons. Il fleurit après la feuillaison. L'écorce est rugueuse, avec de profondes fissures verticales, les jeunes feuilles sont soyeuses. Les feuilles sont lancéolées|, ou ovale-lancéolé, de 8-15 cm de long, avec des marges finement et régulièrement dentées. Le doux chaton mâle est parfumé, il mesure 5-10 cm de long. Les chatons femelles font de 8 à 12 cm de long. Les capsules sont longues et sont disposées par groupes de 3 à 4.
-L'arbre pousse dans de nombreuses régions d'Asie du sud et du sud-est dont l'Inde, le Pakistan, le Népal[2], le Laos et la Thaïlande[3].
+L'arbre pousse dans de nombreuses régions d'Asie du sud et du sud-est dont l'Inde, le Pakistan, le Népal, le Laos et la Thaïlande.
 On le rencontre à une altitude inférieure à 1 800 m, en chine, dans le sud du Guangdong, le Hainan, le sud du Xizang, au sud et au sud-ouest du Yunnan, en Indonésie, en Malaisie, au Myanmar, au Pakistan, dans les Philippines, en Thaïlande, au Vietnam.
-La floraison intervient de septembre à octobre ou en janvier-février[4].
+La floraison intervient de septembre à octobre ou en janvier-février.
 À Manipur, dans le nord de l'Inde, les jeunes fleurs de saule indien, connu localement sous le nom de  ঊযুম (ooyum), sont consommées. Elles sont considérées comme délicieuses.
 L'écorce est parfois utilisée comme remède contre la fièvre.
 Dans le Maharashtra, cet arbre est appelé walunj. Il peut être trouvé à Pune, Satara, Sangli et Kolhapur.
